--- a/testReport.xlsx
+++ b/testReport.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes, lambdas return a value</t>
+          <t>Yes, lambdas can return a value. The type of the return value will be inferred by the compiler. The return statement is not required if the lambda body is just a one-liner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7710996756714712</v>
+        <v>0.7927480678428015</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8050296396998702</v>
+        <v>0.9695611300291382</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yes, lambdas return a value</t>
+          <t>Yes, lambdas can return a value. The type of the return value will be inferred by the compiler. The return statement is not required if the lambda body is just a one-liner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.769095989896934</v>
+        <v>0.7783126587304628</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8050296396998702</v>
+        <v>0.9695611300291382</v>
       </c>
     </row>
     <row r="4">
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yes, lambdas return a value</t>
+          <t>Yes, lambdas can return a value. The type of the return value will be inferred by the compiler. The return statement is not required if the lambda body is just a one-liner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7714809024676623</v>
+        <v>0.7787216016591447</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8050296396998702</v>
+        <v>0.9695611300291382</v>
       </c>
     </row>
   </sheetData>
